--- a/Team-Data/2013-14/3-22-2013-14.xlsx
+++ b/Team-Data/2013-14/3-22-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -759,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -938,7 +1005,7 @@
         <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -977,10 +1044,10 @@
         <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
         <v>25</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1138,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
         <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.486</v>
+        <v>0.478</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
@@ -1242,31 +1309,31 @@
         <v>17.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O5" t="n">
         <v>17.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.737</v>
+        <v>0.734</v>
       </c>
       <c r="R5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W5" t="n">
         <v>6.1</v>
@@ -1275,25 +1342,25 @@
         <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA5" t="n">
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,13 +1369,13 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
         <v>24</v>
@@ -1332,16 +1399,16 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
         <v>21</v>
       </c>
       <c r="AU5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1365,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
         <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H6" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.429</v>
@@ -1421,16 +1488,16 @@
         <v>6.1</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
         <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
         <v>0.773</v>
@@ -1469,10 +1536,10 @@
         <v>93.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1493,10 +1560,10 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1505,10 +1572,10 @@
         <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
@@ -1517,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H7" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1609,25 +1676,25 @@
         <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q7" t="n">
         <v>0.749</v>
       </c>
       <c r="R7" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
         <v>14.5</v>
@@ -1639,22 +1706,22 @@
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
         <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1669,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1684,16 +1751,16 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1705,10 +1772,10 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>22</v>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1869,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>25</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2066,10 +2133,10 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.362</v>
+        <v>0.368</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,25 +2207,25 @@
         <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.316</v>
+        <v>0.313</v>
       </c>
       <c r="O10" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q10" t="n">
         <v>0.666</v>
@@ -2167,16 +2234,16 @@
         <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
         <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>8.6</v>
@@ -2185,22 +2252,22 @@
         <v>5.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2224,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2251,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
         <v>16</v>
@@ -2260,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
         <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.62</v>
+        <v>0.629</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L11" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U11" t="n">
         <v>23.1</v>
@@ -2376,10 +2443,10 @@
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2397,22 +2464,22 @@
         <v>21</v>
       </c>
       <c r="AI11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>6</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>8</v>
-      </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
@@ -2430,19 +2497,19 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2513,31 +2580,31 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N12" t="n">
         <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P12" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.703</v>
+        <v>0.7</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T12" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2546,7 +2613,7 @@
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
@@ -2555,19 +2622,19 @@
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.9</v>
+        <v>106.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2588,16 +2655,16 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2612,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>20</v>
@@ -2624,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
         <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.729</v>
+        <v>0.739</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
         <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q13" t="n">
         <v>0.783</v>
@@ -2713,16 +2780,16 @@
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U13" t="n">
         <v>20.3</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2740,28 +2807,28 @@
         <v>22.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
       </c>
       <c r="AF13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2773,7 +2840,7 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
         <v>23</v>
@@ -2794,19 +2861,19 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
         <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R14" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S14" t="n">
         <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.9</v>
@@ -2916,31 +2983,31 @@
         <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2985,10 +3052,10 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -2997,10 +3064,10 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
@@ -3152,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3176,10 +3243,10 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
         <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.594</v>
+        <v>0.588</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.462</v>
@@ -3241,37 +3308,37 @@
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P16" t="n">
         <v>20.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W16" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X16" t="n">
         <v>4.7</v>
@@ -3286,13 +3353,13 @@
         <v>19.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3307,10 +3374,10 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3343,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
@@ -3352,7 +3419,7 @@
         <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>47</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.701</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3426,22 +3493,22 @@
         <v>21.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.763</v>
       </c>
       <c r="R17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
         <v>36.5</v>
@@ -3453,28 +3520,28 @@
         <v>14.9</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3483,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3871,7 +3938,7 @@
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3880,13 +3947,13 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3895,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3907,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.42</v>
+        <v>0.412</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
         <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>5.9</v>
@@ -3975,10 +4042,10 @@
         <v>0.371</v>
       </c>
       <c r="O20" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P20" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q20" t="n">
         <v>0.772</v>
@@ -3987,28 +4054,28 @@
         <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA20" t="n">
         <v>20.2</v>
@@ -4017,19 +4084,19 @@
         <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
@@ -4038,25 +4105,25 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4083,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4226,13 +4293,13 @@
         <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4253,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4432,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>0.271</v>
+        <v>0.275</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
         <v>83.40000000000001</v>
@@ -4515,16 +4582,16 @@
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N23" t="n">
         <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q23" t="n">
         <v>0.767</v>
@@ -4533,13 +4600,13 @@
         <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
         <v>14.5</v>
@@ -4554,19 +4621,19 @@
         <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4581,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4590,7 +4657,7 @@
         <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4617,10 +4684,10 @@
         <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="n">
-        <v>0.214</v>
+        <v>0.217</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J24" t="n">
         <v>87.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M24" t="n">
         <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.304</v>
+        <v>0.307</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
@@ -4709,10 +4776,10 @@
         <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.713</v>
+        <v>0.71</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
         <v>31.6</v>
@@ -4721,16 +4788,16 @@
         <v>43.5</v>
       </c>
       <c r="U24" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="W24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y24" t="n">
         <v>7.1</v>
@@ -4742,13 +4809,13 @@
         <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4769,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -4942,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4960,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4978,19 +5045,19 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5002,7 +5069,7 @@
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
         <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.643</v>
+        <v>0.652</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J26" t="n">
         <v>87.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
         <v>9.5</v>
       </c>
       <c r="M26" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
         <v>19.4</v>
@@ -5073,22 +5140,22 @@
         <v>23.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.819</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S26" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
       </c>
       <c r="U26" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
         <v>5.5</v>
@@ -5097,7 +5164,7 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
         <v>19.6</v>
@@ -5106,13 +5173,13 @@
         <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.5</v>
+        <v>107.7</v>
       </c>
       <c r="AC26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5184,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="BB26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,10 +5373,10 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -5398,34 +5465,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
         <v>0.397</v>
@@ -5437,16 +5504,16 @@
         <v>20.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R28" t="n">
         <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T28" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5467,16 +5534,16 @@
         <v>18.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AC28" t="n">
         <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5673,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>20</v>
@@ -5706,10 +5773,10 @@
         <v>18</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n">
         <v>47</v>
       </c>
       <c r="G30" t="n">
-        <v>0.329</v>
+        <v>0.319</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O30" t="n">
         <v>16.1</v>
       </c>
       <c r="P30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q30" t="n">
         <v>0.747</v>
       </c>
       <c r="R30" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T30" t="n">
         <v>41.3</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
@@ -5834,28 +5901,28 @@
         <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
@@ -5864,7 +5931,7 @@
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
         <v>23</v>
@@ -5885,7 +5952,7 @@
         <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5903,7 +5970,7 @@
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6046,7 +6113,7 @@
         <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>17</v>
@@ -6073,7 +6140,7 @@
         <v>18</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>14</v>
@@ -6082,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-22-2013-14</t>
+          <t>2014-03-22</t>
         </is>
       </c>
     </row>
